--- a/Exc2/requirements.xlsx
+++ b/Exc2/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitry/git/practicum/architect/architecture-sprint-9/Exc2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA334E-5D48-AE4A-B993-49CCAAEF3851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A145E87-E823-EF4D-AD84-0ABA69BCE22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Код</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>При использовании новых технологий в MVP нужно учесть совместимость с существующими платформами</t>
+  </si>
+  <si>
+    <t>Возможность переключения на резервный цод</t>
+  </si>
+  <si>
+    <t>Масштабирование на 2 ЦОД</t>
+  </si>
+  <si>
+    <t>АБС поддерживает только вертикальное масштабирование</t>
+  </si>
+  <si>
+    <t>Не дорабатывать функционал подрядчика в интернет-банке</t>
   </si>
 </sst>
 </file>
@@ -165,16 +177,19 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -270,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -299,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,17 +545,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.3984375" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="6.83203125" customWidth="1"/>
-    <col min="3" max="3" width="166.1640625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" customWidth="1"/>
+    <col min="3" max="3" width="166.19921875" customWidth="1"/>
+    <col min="4" max="4" width="44.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="30" customHeight="1"/>
@@ -695,154 +713,191 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" ht="30" customHeight="1">
-      <c r="B21" s="5"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" ht="30" customHeight="1">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="2:4" ht="30" customHeight="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" ht="30" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" ht="30" customHeight="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" ht="30" customHeight="1">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" ht="30" customHeight="1">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1">
-      <c r="B27" s="2"/>
-      <c r="C27" s="8" t="s">
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="2:4" ht="30" customHeight="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1">
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" ht="30" customHeight="1">
       <c r="B30" s="2"/>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" ht="30" customHeight="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="2:4" ht="30" customHeight="1">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1">
-      <c r="B31" s="2"/>
-      <c r="C31" s="7" t="s">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1">
-      <c r="B32" s="5"/>
-      <c r="C32" s="3" t="s">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1">
+      <c r="B35" s="5"/>
+      <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="B33" s="2" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1">
+      <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="35.25" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="33" customHeight="1">
+    <row r="38" spans="1:4" ht="35.25" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="35.25" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="33" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
